--- a/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T03:51:17+00:00</t>
+    <t>2024-02-12T13:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T13:34:44+00:00</t>
+    <t>2024-03-01T08:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
